--- a/medicine/Psychotrope/Zippo/Zippo.xlsx
+++ b/medicine/Psychotrope/Zippo/Zippo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zippo est une marque américaine de briquets, créée en 1932 par George G. Blaisdell, fils de Philo Blaisdell, à Bradford, en Pennsylvanie. Le brevet fut déposé le 3 mars 1936. En 2018, Zippo est la propriété du petit-fils de George Blaisdell[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zippo est une marque américaine de briquets, créée en 1932 par George G. Blaisdell, fils de Philo Blaisdell, à Bradford, en Pennsylvanie. Le brevet fut déposé le 3 mars 1936. En 2018, Zippo est la propriété du petit-fils de George Blaisdell.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la légende, George G. Blaisdell aurait demandé en 1932 à un ami élégant : « Vous qui êtes si chic, pourquoi n'avez-vous pas un briquet qui ait plus d’allure ? » (« You're all dressed up. Why don't you get a lighter that looks decent? ») Piqué, son ami lui répondit : « Mais il marche ! »« It works ! »[réf. nécessaire][2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la légende, George G. Blaisdell aurait demandé en 1932 à un ami élégant : « Vous qui êtes si chic, pourquoi n'avez-vous pas un briquet qui ait plus d’allure ? » (« You're all dressed up. Why don't you get a lighter that looks decent? ») Piqué, son ami lui répondit : « Mais il marche ! »« It works ! »[réf. nécessaire]
 Ainsi le créateur voulut un briquet beau à regarder, simple à utiliser et surtout fiable. Dès 1931, il acheta les droits d'un briquet tempête autrichien avec capuchon retirable, mais ce fut un échec commercial. Fin 1932, il dut créer un autre briquet. L'apparition d'un boîtier rectangulaire, qui sera réduit plus tard, deviendra la marque de fabrique. La grande idée est de relier le capuchon à la partie inférieure par une charnière soudée. Pour finir sa création, Georges G. Blaisdell entoura la mèche d'une grille de protection contre le vent. Ensuite, il trouva le nom de Zippo, inspiré de celui d'une invention géniale : le zipper (la fermeture Éclair), le nom Zippo passera rapidement dans l'usage courant.
-En Allemagne et surtout aux États-Unis[3], le Zippo est classé comme un objet éventuellement dangereux pour l'embarquement en avion, sauf si la charge est enlevée. Cependant, un briquet Zippo est toléré sur soi, à condition qu'il ne soit pas rempli d'essence.
+En Allemagne et surtout aux États-Unis, le Zippo est classé comme un objet éventuellement dangereux pour l'embarquement en avion, sauf si la charge est enlevée. Cependant, un briquet Zippo est toléré sur soi, à condition qu'il ne soit pas rempli d'essence.
 Enoch Bolles a illustré les publicités Zippo « Windy Girl » dans une centaine de versions.
 Les usines Zippo ont produit plus de 600 millions de Zippo appréciés par les utilisateurs et les collectionneurs. La forme n'a pratiquement pas changé, mais il y a eu beaucoup d'évolutions mécaniques, notamment pour la pierre à briquet et l'apparence du boîtier. Toutefois des répliques des anciens styles (Zippos « vintage » style 1935 et 1941) sont toujours en vente.
 La société Zippo essaya de se diversifier en 1962. Aujourd'hui, elle produit des couteaux, des ustensiles d'écriture, des porte-clés. Zippo a consolidé ses ventes en installant un réseau de distribution national et international. Dans plus de 100 pays, le nom de Zippo est devenu une garantie de qualité. Sa grande force réside dans sa réputation « Made in USA. », sa solidité, mais surtout sa flamme qui peut résister à des conditions climatiques extrêmes.
@@ -551,7 +565,9 @@
           <t>Datation des Zippo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des dates sont codifiées, de chaque côté de la marque sous le briquet.
 De 1955 à 1965, les Zippo fabriqués sont datés sous le briquet avec un système de points.
@@ -597,7 +613,9 @@
           <t>Clubs et collectionneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les briquets Zippo sont considérés comme des objets de collection ayant une certaine valeur.
 L'usine propose le Zippo Lighter Collector's Guide avec des illustrations, des descriptions, des explications sur le codage de la date qui se trouve au-dessous de chaque Zippo.
@@ -630,18 +648,20 @@
           <t>Le Zippo dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les soldats utilisant ce briquet, les anecdotes « héroïques » ou amusantes nourrissant sa légende ne manquent pas :
 un briquet aurait sauvé le sergent Andres Martinez au Vietnam en arrêtant une balle ;
 un briquet qui fonctionnait toujours aurait été retrouvé dans le ventre d'un poisson ;
 pendant la guerre du Viêt Nam, un « Zippo Raid » consistait à détruire par le feu un village supposé tenu par les Viet-Congs, les G.I. utilisant leur Zippo pour cela.
 Le Zippo apparait régulièrement au cinéma ou à la télévision, on peut ainsi le rencontrer par exemple dans :
-Serge Gainsbourg utilisait régulièrement un briquet Zippo, que l'on retrouve dans les paroles de sa chanson Ford Mustang[4] ainsi que dans le film Gainsbourg, vie héroïque. Il s'est aussi servi d'un Zippo pour brûler un billet de 500 francs le 11 mars 1984 à TF1 sur le plateau de 7 sur 7 ;
+Serge Gainsbourg utilisait régulièrement un briquet Zippo, que l'on retrouve dans les paroles de sa chanson Ford Mustang ainsi que dans le film Gainsbourg, vie héroïque. Il s'est aussi servi d'un Zippo pour brûler un billet de 500 francs le 11 mars 1984 à TF1 sur le plateau de 7 sur 7 ;
 le film Gran Torino, le personnage principal, Walt Kowalski, interprété par Clint Eastwood possède un Zippo avec le blason de la 1re division de cavalerie américaine ;
 le film Mr. Nice, de Bernard Rose, au cours du générique de fin, Howard Marks utilise son zippo filmé en gros plan et au ralenti, d'une fort belle manière ;
 le film Constantine (inspiré du comics Hellblazer) le héros, interprété par Keanu Reeves, utilise continuellement un Zippo ;
-la série Buffy contre les vampires, le vampire Spike possède un Zippo auquel il semble beaucoup tenir[5] ;
+la série Buffy contre les vampires, le vampire Spike possède un Zippo auquel il semble beaucoup tenir ;
 le film Un monde parfait, le personnage interprété par Kevin Costner utilise le briquet Zippo ;
 le film La Tour Montparnasse infernale ; une des affiches du film montre Ramzy tenant un Zippo allumé ;
 le film Reservoir Dogs de Quentin Tarantino, le personnage Mr White possède un Zippo ;
